--- a/Activity_Log.xlsx
+++ b/Activity_Log.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,6 +475,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>